--- a/Assets/_TankRes/excel/prop.xlsx
+++ b/Assets/_TankRes/excel/prop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="prop" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <t>资源名称</t>
   </si>
   <si>
-    <t>id</t>
+    <t>ID</t>
   </si>
   <si>
     <t>Name</t>
@@ -746,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -754,12 +754,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1081,8 +1075,8 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1107,85 +1101,85 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="31.9" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="31.9" customHeight="1" spans="1:3">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="31.9" customHeight="1" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="31.9" customHeight="1" spans="1:3">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="31.9" customHeight="1" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="31.9" customHeight="1" spans="1:3">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="31.9" customHeight="1" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
